--- a/Output_Data/output_Data_00000027.xlsx
+++ b/Output_Data/output_Data_00000027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya\Documents\UiPath\Task\Output_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126288FF-1D4F-4105-BC62-A15E6737D83D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90601DB-5677-43B4-868A-E6A677B9446D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="5750" windowWidth="6410" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8240" yWindow="6090" windowWidth="6410" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>INVOICE</t>
   </si>
@@ -72,13 +72,19 @@
     <t>(Company Name)</t>
   </si>
   <si>
+    <t>(Department Name)</t>
+  </si>
+  <si>
+    <t>102-315: DUBAI GOVERNMENT- ZAABEL OFFICE</t>
+  </si>
+  <si>
     <t>1-2019-16909</t>
   </si>
   <si>
     <t>2012-NISSAN-XTERRA</t>
   </si>
   <si>
-    <t>A32449</t>
+    <t>A67302</t>
   </si>
   <si>
     <t>DUN-4X4125-0 TYRE; 265/70R18 116H AT23 DUN-4X4125-0</t>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -282,7 +288,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -571,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H36"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,12 +598,12 @@
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="5"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="6"/>
       <c r="H2" s="1"/>
     </row>
@@ -606,13 +613,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13">
+      <c r="F3" s="14">
         <v>43716</v>
       </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
@@ -638,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -646,11 +653,11 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -659,10 +666,10 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -670,8 +677,12 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="8"/>
@@ -686,9 +697,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -696,82 +705,84 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4">
-        <v>515</v>
-      </c>
-      <c r="F14" s="14">
-        <v>2060</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
       <c r="C15" s="4">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4">
         <v>515</v>
       </c>
-      <c r="F15" s="14">
-        <v>-2060</v>
+      <c r="F15" s="15">
+        <v>2060</v>
       </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
-        <v>405</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1620</v>
+        <v>515</v>
+      </c>
+      <c r="F16" s="15">
+        <v>-2060</v>
       </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4">
+        <v>405</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1620</v>
+      </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -784,17 +795,15 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
-      <c r="C20" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -802,42 +811,36 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="4">
-        <v>150</v>
-      </c>
-      <c r="F23" s="4">
-        <v>150</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" ht="29" x14ac:dyDescent="0.35">
@@ -845,8 +848,8 @@
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>21</v>
+      <c r="D24" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E24" s="4">
         <v>150</v>
@@ -859,16 +862,16 @@
     <row r="25" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="C25" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="4">
         <v>150</v>
       </c>
       <c r="F25" s="4">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -877,8 +880,8 @@
       <c r="C26" s="4">
         <v>0.5</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>21</v>
+      <c r="D26" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E26" s="4">
         <v>150</v>
@@ -888,12 +891,20 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4">
+        <v>150</v>
+      </c>
+      <c r="F27" s="4">
+        <v>75</v>
+      </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -906,22 +917,18 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17">
-        <v>1620</v>
-      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -929,10 +936,10 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="2">
-        <v>450</v>
+        <v>24</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1620</v>
       </c>
       <c r="G31" s="8"/>
     </row>
@@ -941,10 +948,10 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G32" s="8"/>
     </row>
@@ -953,10 +960,10 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="17">
-        <v>2070</v>
+        <v>26</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -965,10 +972,10 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="2">
-        <v>103.5</v>
+        <v>27</v>
+      </c>
+      <c r="F34" s="18">
+        <v>2070</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -977,20 +984,32 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="17">
+        <v>28</v>
+      </c>
+      <c r="F35" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="7"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="18">
         <v>2173.5</v>
       </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
